--- a/xlsx/加利福尼亚州参议院_intext.xlsx
+++ b/xlsx/加利福尼亚州参议院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>加利福尼亚州参议院</t>
   </si>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -71,15 +71,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>加利福尼亞州議會大廈</t>
+    <t>加利福尼亚州议会大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>加利福尼亞州議會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E%E8%AE%AE%E4%BC%9A</t>
   </si>
   <si>
@@ -383,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1039,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -1065,10 +1059,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -1094,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1123,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1152,10 +1146,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1181,10 +1175,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1210,10 +1204,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1239,10 +1233,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>52</v>
@@ -1268,10 +1262,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>71</v>
@@ -1297,10 +1291,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1326,10 +1320,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1355,10 +1349,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1384,10 +1378,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
         <v>15</v>
@@ -1413,10 +1407,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1442,10 +1436,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1471,10 +1465,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1500,10 +1494,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1529,10 +1523,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1558,10 +1552,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1587,10 +1581,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1616,10 +1610,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1645,10 +1639,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1674,10 +1668,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1703,10 +1697,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1732,10 +1726,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1761,10 +1755,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1790,10 +1784,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1819,10 +1813,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1848,10 +1842,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1877,10 +1871,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1906,10 +1900,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1935,10 +1929,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1964,10 +1958,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1993,10 +1987,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2022,10 +2016,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2051,10 +2045,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2080,10 +2074,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2109,10 +2103,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2138,10 +2132,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2167,10 +2161,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2196,10 +2190,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2225,10 +2219,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2254,10 +2248,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2283,10 +2277,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2312,10 +2306,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2341,10 +2335,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2370,10 +2364,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2399,10 +2393,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2428,10 +2422,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2457,10 +2451,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2486,10 +2480,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2515,10 +2509,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2544,10 +2538,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2573,10 +2567,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2602,10 +2596,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2631,10 +2625,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
